--- a/Bees/蜜蜂来了Demo版优化及Bug记录.xlsx
+++ b/Bees/蜜蜂来了Demo版优化及Bug记录.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65B3ECA-F385-4461-84FB-322A6E522F37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16152" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,55 +70,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>现有金币在增加时添加一个缩放的特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级面板现在能同时打开多个，改成最多只能打开一个吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍收益和加速按钮在能点击的时候也增加一个缩放的动画吸引玩家点击吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请好友界面，点击“+”号区域也调整为能跳转到微信通用分享界面吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮盘分享后不能转动，再点击按钮还是直接跳转至分享界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有时候会突然卡死</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【邀请有礼】按钮点击后界面没有显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>【排行榜】界面打开再关闭后界面会黑掉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>飞行物大小放大一倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产线升级到满级后卡死，把生产线设置成300级封顶算了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蜂蜜转化成金币的数字大了之后还是用简写（生产线上的那个）</t>
+    <t>蜂蜜转化成金币的数字大了之后还是用简写（生产线上的那个）(已处理)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级面板现在能同时打开多个，改成最多只能打开一个吧（已处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮盘分享后不能转动，再点击按钮还是直接跳转至分享界面（已处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请好友界面，点击“+”号区域也调整为能跳转到微信通用分享界面吧（已处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【邀请有礼】按钮点击后界面没有显示（未重现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行物大小放大一倍（已处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍收益和加速按钮在能点击的时候也增加一个缩放的动画吸引玩家点击吧（已处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有金币在增加时添加一个缩放的特效（已处理）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,7 +225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -268,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,27 +299,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,24 +333,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,19 +508,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:W19"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,7 +549,7 @@
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" hidden="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -615,7 +578,7 @@
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" hidden="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -644,7 +607,7 @@
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" hidden="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -673,7 +636,7 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" hidden="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -702,7 +665,7 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" hidden="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -731,7 +694,7 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" hidden="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -760,7 +723,7 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" hidden="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -789,7 +752,7 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" hidden="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -818,7 +781,7 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" hidden="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -847,7 +810,7 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" hidden="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -876,7 +839,7 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" hidden="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -905,12 +868,12 @@
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -934,12 +897,12 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="4">
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -963,12 +926,12 @@
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23">
       <c r="A15" s="4">
         <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -992,12 +955,12 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23">
       <c r="A16" s="4">
         <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1021,12 +984,12 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23">
       <c r="A17" s="4">
         <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1050,12 +1013,12 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23">
       <c r="A18" s="4">
         <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1079,12 +1042,12 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23">
       <c r="A19" s="4">
         <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1108,12 +1071,12 @@
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23">
       <c r="A20" s="4">
         <v>29</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1137,12 +1100,12 @@
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="4">
         <v>30</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1166,7 +1129,7 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23">
       <c r="A22" s="4">
         <v>31</v>
       </c>
@@ -1195,12 +1158,12 @@
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23">
       <c r="A23" s="4">
         <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1224,813 +1187,803 @@
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23">
       <c r="A24" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23">
       <c r="A25" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23">
       <c r="A26" s="4">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23">
       <c r="A27" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23">
       <c r="A28" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23">
       <c r="A29" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23">
       <c r="A30" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23">
       <c r="A31" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23">
       <c r="A32" s="4">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="4">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="4">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="4">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="4">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="4">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" s="4">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" s="4">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" s="4">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72" s="4">
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" s="4">
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75" s="4">
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" s="4">
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77" s="4">
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78" s="4">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79" s="4">
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80" s="4">
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" s="4">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" s="4">
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="4">
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" s="4">
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" s="4">
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" s="4">
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" s="4">
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1">
       <c r="A89" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" s="4">
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93" s="4">
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1">
       <c r="A95" s="4">
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" s="4">
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" s="4">
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" s="4">
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" s="4">
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1">
       <c r="A100" s="4">
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1">
       <c r="A101" s="4">
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1">
       <c r="A102" s="4">
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1">
       <c r="A103" s="4">
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1">
       <c r="A104" s="4">
         <v>115</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1">
       <c r="A105" s="4">
         <v>116</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1">
       <c r="A106" s="4">
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1">
       <c r="A107" s="4">
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1">
       <c r="A108" s="4">
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1">
       <c r="A109" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1">
       <c r="A110" s="4">
         <v>121</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1">
       <c r="A111" s="4">
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1">
       <c r="A112" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1">
       <c r="A113" s="4">
         <v>124</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1">
       <c r="A114" s="4">
         <v>125</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1">
       <c r="A115" s="4">
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1">
       <c r="A116" s="4">
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1">
       <c r="A117" s="4">
         <v>128</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1">
       <c r="A118" s="4">
         <v>129</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1">
       <c r="A119" s="4">
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1">
       <c r="A120" s="4">
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1">
       <c r="A121" s="4">
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1">
       <c r="A122" s="4">
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1">
       <c r="A123" s="4">
         <v>134</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1">
       <c r="A124" s="4">
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1">
       <c r="A125" s="4">
         <v>136</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1">
       <c r="A126" s="4">
         <v>137</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1">
       <c r="A127" s="4">
         <v>138</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1">
       <c r="A128" s="4">
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1">
       <c r="A129" s="4">
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1">
       <c r="A130" s="4">
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1">
       <c r="A131" s="4">
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1">
       <c r="A132" s="4">
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1">
       <c r="A133" s="4">
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1">
       <c r="A134" s="4">
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1">
       <c r="A135" s="4">
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1">
       <c r="A136" s="4">
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1">
       <c r="A137" s="4">
         <v>148</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1">
       <c r="A138" s="4">
         <v>149</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1">
       <c r="A139" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1">
       <c r="A140" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1">
       <c r="A141" s="4">
         <v>152</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1">
       <c r="A142" s="4">
         <v>153</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1">
       <c r="A143" s="4">
         <v>154</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1">
       <c r="A144" s="4">
         <v>155</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1">
       <c r="A145" s="4">
         <v>156</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1">
       <c r="A146" s="4">
         <v>157</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1">
       <c r="A147" s="4">
         <v>158</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1">
       <c r="A148" s="4">
         <v>159</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1">
       <c r="A149" s="4">
         <v>160</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1">
       <c r="A150" s="4">
         <v>161</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1">
       <c r="A151" s="4">
         <v>162</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1">
       <c r="A152" s="4">
         <v>163</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1">
       <c r="A153" s="4">
         <v>164</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1">
       <c r="A154" s="4">
         <v>165</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1">
       <c r="A155" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1">
       <c r="A156" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1">
       <c r="A157" s="4">
         <v>168</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1">
       <c r="A158" s="4">
         <v>169</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1">
       <c r="A159" s="4">
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1">
       <c r="A160" s="4">
         <v>171</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1">
       <c r="A161" s="4">
         <v>172</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1">
       <c r="A162" s="4">
         <v>173</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1">
       <c r="A163" s="4">
         <v>174</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1">
       <c r="A164" s="4">
         <v>175</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1">
       <c r="A165" s="4">
         <v>176</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1">
       <c r="A166" s="4">
         <v>177</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1">
       <c r="A167" s="4">
         <v>178</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1">
       <c r="A168" s="4">
         <v>179</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1">
       <c r="A169" s="4">
         <v>180</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1">
       <c r="A170" s="4">
         <v>181</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1">
       <c r="A171" s="4">
         <v>182</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1">
       <c r="A172" s="4">
         <v>183</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1">
       <c r="A173" s="4">
         <v>184</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1">
       <c r="A174" s="4">
         <v>185</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1">
       <c r="A175" s="4">
         <v>186</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1">
       <c r="A176" s="4">
         <v>187</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1">
       <c r="A177" s="4">
         <v>188</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1">
       <c r="A178" s="4">
         <v>189</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1">
       <c r="A179" s="4">
         <v>190</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1">
       <c r="A180" s="4">
         <v>191</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1">
       <c r="A181" s="4">
         <v>192</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1">
       <c r="A182" s="4">
         <v>193</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B20:W20"/>
-    <mergeCell ref="B21:W21"/>
-    <mergeCell ref="B22:W22"/>
-    <mergeCell ref="B23:W23"/>
-    <mergeCell ref="B19:W19"/>
-    <mergeCell ref="B14:W14"/>
-    <mergeCell ref="B16:W16"/>
-    <mergeCell ref="B17:W17"/>
-    <mergeCell ref="B15:W15"/>
-    <mergeCell ref="B18:W18"/>
     <mergeCell ref="B13:W13"/>
     <mergeCell ref="B12:W12"/>
     <mergeCell ref="B1:W1"/>
@@ -2044,6 +1997,16 @@
     <mergeCell ref="B9:W9"/>
     <mergeCell ref="B10:W10"/>
     <mergeCell ref="B11:W11"/>
+    <mergeCell ref="B14:W14"/>
+    <mergeCell ref="B16:W16"/>
+    <mergeCell ref="B17:W17"/>
+    <mergeCell ref="B15:W15"/>
+    <mergeCell ref="B18:W18"/>
+    <mergeCell ref="B20:W20"/>
+    <mergeCell ref="B21:W21"/>
+    <mergeCell ref="B22:W22"/>
+    <mergeCell ref="B23:W23"/>
+    <mergeCell ref="B19:W19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2052,12 +2015,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2066,12 +2029,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bees/蜜蜂来了Demo版优化及Bug记录.xlsx
+++ b/Bees/蜜蜂来了Demo版优化及Bug记录.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>序号</t>
   </si>
@@ -58,34 +58,34 @@
   </si>
   <si>
     <t>有时候会突然卡死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>【排行榜】界面打开再关闭后界面会黑掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>点击飞行物没有弹出界面</t>
+    <t>点击飞行物没有弹出界面(已修改)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>生产线升级到满级后卡死，把生产线设置成300级封顶算了</t>
+    <t>转盘金币选项还是会存在没有折算成实际金额的情况，且领取界面点击【领取】按钮后，界面不消失(已修改)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>转盘金币选项还是会存在没有折算成实际金额的情况，且领取界面点击【领取】按钮后，界面不消失</t>
+    <t>30级蜂巢之后就不显示新的未解锁的蜂巢了(已修改)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>30级蜂巢之后就不显示新的未解锁的蜂巢了</t>
+    <t>生产线升级到满级后卡死，把生产线设置成300级封顶算了（已修改）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,158 +100,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,194 +119,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -474,251 +143,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -732,64 +159,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1078,611 +458,611 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="16384" width="8.87962962962963" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" hidden="1" spans="1:23">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" hidden="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-    </row>
-    <row r="3" hidden="1" spans="1:23">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" hidden="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-    </row>
-    <row r="4" hidden="1" spans="1:23">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" hidden="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-    </row>
-    <row r="5" hidden="1" spans="1:23">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:23" hidden="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-    </row>
-    <row r="6" hidden="1" spans="1:23">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:23" hidden="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-    </row>
-    <row r="7" hidden="1" spans="1:23">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" hidden="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-    </row>
-    <row r="8" hidden="1" spans="1:23">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" spans="1:23" hidden="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-    </row>
-    <row r="9" hidden="1" spans="1:23">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:23" hidden="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-    </row>
-    <row r="10" hidden="1" spans="1:23">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" hidden="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-    </row>
-    <row r="11" hidden="1" spans="1:23">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" hidden="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-    </row>
-    <row r="12" hidden="1" spans="1:23">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" hidden="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="2">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="2">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="2">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="2">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="2">
         <v>35</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="2">
         <v>36</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:23">
       <c r="A20" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:23">
       <c r="A21" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:23">
       <c r="A22" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:23">
       <c r="A23" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:23">
       <c r="A24" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:23">
       <c r="A25" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:23">
       <c r="A26" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:23">
       <c r="A27" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:23">
       <c r="A28" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:23">
       <c r="A29" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:23">
       <c r="A30" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:23">
       <c r="A31" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:23">
       <c r="A32" s="2">
         <v>50</v>
       </c>
@@ -2404,61 +1784,55 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B16:W16"/>
+    <mergeCell ref="B17:W17"/>
+    <mergeCell ref="B18:W18"/>
+    <mergeCell ref="B11:W11"/>
+    <mergeCell ref="B12:W12"/>
+    <mergeCell ref="B13:W13"/>
+    <mergeCell ref="B14:W14"/>
+    <mergeCell ref="B15:W15"/>
+    <mergeCell ref="B6:W6"/>
+    <mergeCell ref="B7:W7"/>
+    <mergeCell ref="B8:W8"/>
+    <mergeCell ref="B9:W9"/>
+    <mergeCell ref="B10:W10"/>
     <mergeCell ref="B1:W1"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="B3:W3"/>
     <mergeCell ref="B4:W4"/>
     <mergeCell ref="B5:W5"/>
-    <mergeCell ref="B6:W6"/>
-    <mergeCell ref="B7:W7"/>
-    <mergeCell ref="B8:W8"/>
-    <mergeCell ref="B9:W9"/>
-    <mergeCell ref="B10:W10"/>
-    <mergeCell ref="B11:W11"/>
-    <mergeCell ref="B12:W12"/>
-    <mergeCell ref="B13:W13"/>
-    <mergeCell ref="B14:W14"/>
-    <mergeCell ref="B15:W15"/>
-    <mergeCell ref="B16:W16"/>
-    <mergeCell ref="B17:W17"/>
-    <mergeCell ref="B18:W18"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Bees/蜜蜂来了Demo版优化及Bug记录.xlsx
+++ b/Bees/蜜蜂来了Demo版优化及Bug记录.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9930"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>序号</t>
   </si>
@@ -58,34 +58,34 @@
   </si>
   <si>
     <t>有时候会突然卡死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>【排行榜】界面打开再关闭后界面会黑掉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>点击飞行物没有弹出界面(已修改)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>点击飞行物没有弹出界面</t>
   </si>
   <si>
-    <t>转盘金币选项还是会存在没有折算成实际金额的情况，且领取界面点击【领取】按钮后，界面不消失(已修改)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>生产线升级到满级后卡死，把生产线设置成300级封顶算了</t>
   </si>
   <si>
-    <t>30级蜂巢之后就不显示新的未解锁的蜂巢了(已修改)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>背景音乐跳出到游戏外在跳转回来之后就不播放了</t>
   </si>
   <si>
-    <t>生产线升级到满级后卡死，把生产线设置成300级封顶算了（已修改）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>人物等级和生产线等级升到满级后，按钮置灰，上面的文字显示“已满级”吧</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,13 +100,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,8 +257,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -143,9 +467,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -159,17 +725,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -458,1381 +1071,1377 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:23" hidden="1">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" hidden="1" spans="1:23">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" hidden="1">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" hidden="1" spans="1:23">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-    </row>
-    <row r="4" spans="1:23" hidden="1">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" hidden="1" spans="1:23">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:23" hidden="1">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" hidden="1" spans="1:23">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-    </row>
-    <row r="6" spans="1:23" hidden="1">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" hidden="1" spans="1:23">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-    </row>
-    <row r="7" spans="1:23" hidden="1">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" hidden="1" spans="1:23">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-    </row>
-    <row r="8" spans="1:23" hidden="1">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" hidden="1" spans="1:23">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="1:23" hidden="1">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" hidden="1" spans="1:23">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-    </row>
-    <row r="10" spans="1:23" hidden="1">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" hidden="1" spans="1:23">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-    </row>
-    <row r="11" spans="1:23" hidden="1">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" hidden="1" spans="1:23">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-    </row>
-    <row r="12" spans="1:23" hidden="1">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" hidden="1" spans="1:23">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="2">
         <v>26</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="2">
         <v>30</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="2">
         <v>31</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="2">
         <v>33</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="2">
-        <v>35</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="2">
-        <v>36</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="1:23">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="2">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="2">
         <v>193</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B16:W16"/>
-    <mergeCell ref="B17:W17"/>
-    <mergeCell ref="B18:W18"/>
+    <mergeCell ref="B1:W1"/>
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B3:W3"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="B5:W5"/>
+    <mergeCell ref="B6:W6"/>
+    <mergeCell ref="B7:W7"/>
+    <mergeCell ref="B8:W8"/>
+    <mergeCell ref="B9:W9"/>
+    <mergeCell ref="B10:W10"/>
     <mergeCell ref="B11:W11"/>
     <mergeCell ref="B12:W12"/>
     <mergeCell ref="B13:W13"/>
     <mergeCell ref="B14:W14"/>
     <mergeCell ref="B15:W15"/>
-    <mergeCell ref="B6:W6"/>
-    <mergeCell ref="B7:W7"/>
-    <mergeCell ref="B8:W8"/>
-    <mergeCell ref="B9:W9"/>
-    <mergeCell ref="B10:W10"/>
-    <mergeCell ref="B1:W1"/>
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="B3:W3"/>
-    <mergeCell ref="B4:W4"/>
-    <mergeCell ref="B5:W5"/>
+    <mergeCell ref="B16:W16"/>
+    <mergeCell ref="B17:W17"/>
+    <mergeCell ref="B18:W18"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Bees/蜜蜂来了Demo版优化及Bug记录.xlsx
+++ b/Bees/蜜蜂来了Demo版优化及Bug记录.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>序号</t>
   </si>
@@ -57,35 +57,33 @@
     <t>蜂巢升级界面中，采蜜速度信息在升级后没有更新（关闭界面打开后也是一样）（已处理）</t>
   </si>
   <si>
-    <t>有时候会突然卡死</t>
-  </si>
-  <si>
     <t>【排行榜】界面打开再关闭后界面会黑掉</t>
-  </si>
-  <si>
-    <t>点击飞行物没有弹出界面</t>
-  </si>
-  <si>
-    <t>生产线升级到满级后卡死，把生产线设置成300级封顶算了</t>
   </si>
   <si>
     <t>背景音乐跳出到游戏外在跳转回来之后就不播放了</t>
   </si>
   <si>
-    <t>人物等级和生产线等级升到满级后，按钮置灰，上面的文字显示“已满级”吧</t>
+    <t>点击飞行物没有弹出界面(已处理)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产线升级到满级后卡死，把生产线设置成300级封顶算了(已处理)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物等级和生产线等级升到满级后，按钮置灰，上面的文字显示“已满级”吧（已处理）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时候会突然卡死（已处理）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,151 +98,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,194 +117,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -467,251 +141,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -725,64 +157,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1071,611 +456,611 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="16384" width="8.87962962962963" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" hidden="1" spans="1:23">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" hidden="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-    </row>
-    <row r="3" hidden="1" spans="1:23">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" hidden="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-    </row>
-    <row r="4" hidden="1" spans="1:23">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" hidden="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-    </row>
-    <row r="5" hidden="1" spans="1:23">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:23" hidden="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-    </row>
-    <row r="6" hidden="1" spans="1:23">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:23" hidden="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-    </row>
-    <row r="7" hidden="1" spans="1:23">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" hidden="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-    </row>
-    <row r="8" hidden="1" spans="1:23">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" spans="1:23" hidden="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-    </row>
-    <row r="9" hidden="1" spans="1:23">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:23" hidden="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-    </row>
-    <row r="10" hidden="1" spans="1:23">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" hidden="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-    </row>
-    <row r="11" hidden="1" spans="1:23">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" hidden="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-    </row>
-    <row r="12" hidden="1" spans="1:23">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" hidden="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="2">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="2">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="2">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="2">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="2">
         <v>37</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="2">
         <v>38</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:23">
       <c r="A20" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:23">
       <c r="A21" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:23">
       <c r="A22" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:23">
       <c r="A23" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:23">
       <c r="A24" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:23">
       <c r="A25" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:23">
       <c r="A26" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:23">
       <c r="A27" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:23">
       <c r="A28" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:23">
       <c r="A29" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:23">
       <c r="A30" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:23">
       <c r="A31" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:23">
       <c r="A32" s="2">
         <v>52</v>
       </c>
@@ -2397,51 +1782,45 @@
     <mergeCell ref="B8:W8"/>
     <mergeCell ref="B9:W9"/>
     <mergeCell ref="B10:W10"/>
+    <mergeCell ref="B16:W16"/>
+    <mergeCell ref="B17:W17"/>
+    <mergeCell ref="B18:W18"/>
     <mergeCell ref="B11:W11"/>
     <mergeCell ref="B12:W12"/>
     <mergeCell ref="B13:W13"/>
     <mergeCell ref="B14:W14"/>
     <mergeCell ref="B15:W15"/>
-    <mergeCell ref="B16:W16"/>
-    <mergeCell ref="B17:W17"/>
-    <mergeCell ref="B18:W18"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Bees/蜜蜂来了Demo版优化及Bug记录.xlsx
+++ b/Bees/蜜蜂来了Demo版优化及Bug记录.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9930"/>
+    <workbookView windowWidth="22368" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>序号</t>
   </si>
@@ -57,33 +57,32 @@
     <t>蜂巢升级界面中，采蜜速度信息在升级后没有更新（关闭界面打开后也是一样）（已处理）</t>
   </si>
   <si>
-    <t>【排行榜】界面打开再关闭后界面会黑掉</t>
+    <t>【好友排行榜】顺序有点问题</t>
   </si>
   <si>
-    <t>背景音乐跳出到游戏外在跳转回来之后就不播放了</t>
+    <t>已经处于加速状态，如果转盘转到了加速，时间不会累计而是直接重置成转盘转到的时间</t>
   </si>
   <si>
-    <t>点击飞行物没有弹出界面(已处理)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>转盘转到加速时，时间会被火箭小图标盖住，调整成有加速时间的时候，火箭小图标隐藏吧</t>
   </si>
   <si>
-    <t>生产线升级到满级后卡死，把生产线设置成300级封顶算了(已处理)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>把加速的商业机制加上去吧，就是前三次看视频，如果有的话，视频没有次数了就分享</t>
   </si>
   <si>
-    <t>人物等级和生产线等级升到满级后，按钮置灰，上面的文字显示“已满级”吧（已处理）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有时候会突然卡死（已处理）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>【双倍金币】CD 3分钟 持续时间1s，加速 CD 2分钟，持续30s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +97,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,8 +254,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -141,9 +464,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -157,17 +722,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -456,1322 +1068,1278 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:23" hidden="1">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" hidden="1" spans="1:23">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" hidden="1">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+    </row>
+    <row r="3" hidden="1" spans="1:23">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-    </row>
-    <row r="4" spans="1:23" hidden="1">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" hidden="1" spans="1:23">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:23" hidden="1">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" hidden="1" spans="1:23">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-    </row>
-    <row r="6" spans="1:23" hidden="1">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" hidden="1" spans="1:23">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-    </row>
-    <row r="7" spans="1:23" hidden="1">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" hidden="1" spans="1:23">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-    </row>
-    <row r="8" spans="1:23" hidden="1">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" hidden="1" spans="1:23">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="1:23" hidden="1">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" hidden="1" spans="1:23">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-    </row>
-    <row r="10" spans="1:23" hidden="1">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" hidden="1" spans="1:23">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-    </row>
-    <row r="11" spans="1:23" hidden="1">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" hidden="1" spans="1:23">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-    </row>
-    <row r="12" spans="1:23" hidden="1">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" hidden="1" spans="1:23">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="2">
-        <v>26</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="2">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="2">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="2">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="2">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="1:23">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="2">
-        <v>38</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="1:23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="2">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="2">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="2">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="2">
         <v>193</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
     <mergeCell ref="B1:W1"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="B3:W3"/>
@@ -1782,45 +2350,50 @@
     <mergeCell ref="B8:W8"/>
     <mergeCell ref="B9:W9"/>
     <mergeCell ref="B10:W10"/>
-    <mergeCell ref="B16:W16"/>
-    <mergeCell ref="B17:W17"/>
-    <mergeCell ref="B18:W18"/>
     <mergeCell ref="B11:W11"/>
     <mergeCell ref="B12:W12"/>
     <mergeCell ref="B13:W13"/>
     <mergeCell ref="B14:W14"/>
     <mergeCell ref="B15:W15"/>
+    <mergeCell ref="B16:W16"/>
+    <mergeCell ref="B17:W17"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Bees/蜜蜂来了Demo版优化及Bug记录.xlsx
+++ b/Bees/蜜蜂来了Demo版优化及Bug记录.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>序号</t>
   </si>
@@ -57,32 +57,31 @@
     <t>蜂巢升级界面中，采蜜速度信息在升级后没有更新（关闭界面打开后也是一样）（已处理）</t>
   </si>
   <si>
-    <t>【好友排行榜】顺序有点问题</t>
+    <t>【双倍金币】CD 3分钟 持续时间1s，加速 CD 2分钟，持续30s(已修改)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>已经处于加速状态，如果转盘转到了加速，时间不会累计而是直接重置成转盘转到的时间</t>
+    <t>转盘转到加速时，时间会被火箭小图标盖住，调整成有加速时间的时候，火箭小图标隐藏吧（已修改）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>转盘转到加速时，时间会被火箭小图标盖住，调整成有加速时间的时候，火箭小图标隐藏吧</t>
+    <t>已经处于加速状态，如果转盘转到了加速，时间不会累计而是直接重置成转盘转到的时间（已修改）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>把加速的商业机制加上去吧，就是前三次看视频，如果有的话，视频没有次数了就分享</t>
+    <t>【好友排行榜】顺序有点问题（已修改）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>【双倍金币】CD 3分钟 持续时间1s，加速 CD 2分钟，持续30s</t>
+    <t>把加速的商业机制加上去吧，就是前三次看视频，如果有的话，视频没有次数了就分享（已加上分享）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,151 +96,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,194 +115,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -464,251 +139,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -722,64 +155,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1068,587 +454,587 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="16384" width="8.87962962962963" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" hidden="1" spans="1:23">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" hidden="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-    </row>
-    <row r="3" hidden="1" spans="1:23">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" hidden="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-    </row>
-    <row r="4" hidden="1" spans="1:23">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" hidden="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-    </row>
-    <row r="5" hidden="1" spans="1:23">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:23" hidden="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-    </row>
-    <row r="6" hidden="1" spans="1:23">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:23" hidden="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-    </row>
-    <row r="7" hidden="1" spans="1:23">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" hidden="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-    </row>
-    <row r="8" hidden="1" spans="1:23">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" spans="1:23" hidden="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-    </row>
-    <row r="9" hidden="1" spans="1:23">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:23" hidden="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-    </row>
-    <row r="10" hidden="1" spans="1:23">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" hidden="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-    </row>
-    <row r="11" hidden="1" spans="1:23">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" hidden="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-    </row>
-    <row r="12" hidden="1" spans="1:23">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" hidden="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="2">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="2">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="2">
         <v>39</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="2">
         <v>40</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="2">
         <v>41</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:23">
       <c r="A19" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:23">
       <c r="A20" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:23">
       <c r="A21" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:23">
       <c r="A22" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:23">
       <c r="A23" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:23">
       <c r="A24" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:23">
       <c r="A25" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:23">
       <c r="A26" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:23">
       <c r="A27" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:23">
       <c r="A28" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:23">
       <c r="A29" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:23">
       <c r="A30" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:23">
       <c r="A31" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:23">
       <c r="A32" s="2">
         <v>56</v>
       </c>
@@ -2340,60 +1726,54 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B16:W16"/>
+    <mergeCell ref="B17:W17"/>
+    <mergeCell ref="B11:W11"/>
+    <mergeCell ref="B12:W12"/>
+    <mergeCell ref="B13:W13"/>
+    <mergeCell ref="B14:W14"/>
+    <mergeCell ref="B15:W15"/>
+    <mergeCell ref="B6:W6"/>
+    <mergeCell ref="B7:W7"/>
+    <mergeCell ref="B8:W8"/>
+    <mergeCell ref="B9:W9"/>
+    <mergeCell ref="B10:W10"/>
     <mergeCell ref="B1:W1"/>
     <mergeCell ref="B2:W2"/>
     <mergeCell ref="B3:W3"/>
     <mergeCell ref="B4:W4"/>
     <mergeCell ref="B5:W5"/>
-    <mergeCell ref="B6:W6"/>
-    <mergeCell ref="B7:W7"/>
-    <mergeCell ref="B8:W8"/>
-    <mergeCell ref="B9:W9"/>
-    <mergeCell ref="B10:W10"/>
-    <mergeCell ref="B11:W11"/>
-    <mergeCell ref="B12:W12"/>
-    <mergeCell ref="B13:W13"/>
-    <mergeCell ref="B14:W14"/>
-    <mergeCell ref="B15:W15"/>
-    <mergeCell ref="B16:W16"/>
-    <mergeCell ref="B17:W17"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Bees/蜜蜂来了Demo版优化及Bug记录.xlsx
+++ b/Bees/蜜蜂来了Demo版优化及Bug记录.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9930"/>
+    <workbookView windowWidth="22368" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>序号</t>
   </si>
@@ -57,31 +57,56 @@
     <t>蜂巢升级界面中，采蜜速度信息在升级后没有更新（关闭界面打开后也是一样）（已处理）</t>
   </si>
   <si>
-    <t>【双倍金币】CD 3分钟 持续时间1s，加速 CD 2分钟，持续30s(已修改)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>【好友排行榜】顺序有点问题（已修改）</t>
+  </si>
+  <si>
+    <t>已经处于加速状态，如果转盘转到了加速，时间不会累计而是直接重置成转盘转到的时间（已修改）</t>
   </si>
   <si>
     <t>转盘转到加速时，时间会被火箭小图标盖住，调整成有加速时间的时候，火箭小图标隐藏吧（已修改）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经处于加速状态，如果转盘转到了加速，时间不会累计而是直接重置成转盘转到的时间（已修改）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【好友排行榜】顺序有点问题（已修改）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>把加速的商业机制加上去吧，就是前三次看视频，如果有的话，视频没有次数了就分享（已加上分享）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【双倍金币】CD 3分钟 持续时间1s，加速 CD 2分钟，持续30s(已修改)</t>
+  </si>
+  <si>
+    <t>金币不足时，增加分享获得金币功能，在点击任意需要消耗金币的按钮时弹出界面，奖励金币数量为5min收益</t>
+  </si>
+  <si>
+    <t>金币符号换一个</t>
+  </si>
+  <si>
+    <t>三个提升等级按钮在能点击的时候，增加一个上升的箭头并且加一个动态的效果</t>
+  </si>
+  <si>
+    <t>加速按钮调整到左边去，图标下面增加【加速】两个字，倒计时显示在加速下面</t>
+  </si>
+  <si>
+    <t>下方广告上面的字改为【更多新游】</t>
+  </si>
+  <si>
+    <t>新手引导，传送带上面那个手指晚2s出现</t>
+  </si>
+  <si>
+    <t>按钮位置优化</t>
+  </si>
+  <si>
+    <t>【飞行物】界面，在直接关掉的情况下，不再给予金币；【离线收益】在直接关掉的情况下，给予本来的1倍金币</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,13 +121,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,12 +274,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -139,14 +494,259 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -155,18 +755,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FFFF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -454,25 +1109,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.87962962962963" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -500,8 +1155,8 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:23" hidden="1">
-      <c r="A2" s="2">
+    <row r="2" hidden="1" spans="1:23">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -529,8 +1184,8 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:23" hidden="1">
-      <c r="A3" s="2">
+    <row r="3" hidden="1" spans="1:23">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -558,8 +1213,8 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="1:23" hidden="1">
-      <c r="A4" s="2">
+    <row r="4" hidden="1" spans="1:23">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -587,8 +1242,8 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:23" hidden="1">
-      <c r="A5" s="2">
+    <row r="5" hidden="1" spans="1:23">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -616,8 +1271,8 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="1:23" hidden="1">
-      <c r="A6" s="2">
+    <row r="6" hidden="1" spans="1:23">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -645,8 +1300,8 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="1:23" hidden="1">
-      <c r="A7" s="2">
+    <row r="7" hidden="1" spans="1:23">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -674,8 +1329,8 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="1:23" hidden="1">
-      <c r="A8" s="2">
+    <row r="8" hidden="1" spans="1:23">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -703,8 +1358,8 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="1:23" hidden="1">
-      <c r="A9" s="2">
+    <row r="9" hidden="1" spans="1:23">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -732,8 +1387,8 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="1:23" hidden="1">
-      <c r="A10" s="2">
+    <row r="10" hidden="1" spans="1:23">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -761,8 +1416,8 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:23" hidden="1">
-      <c r="A11" s="2">
+    <row r="11" hidden="1" spans="1:23">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -790,8 +1445,8 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:23" hidden="1">
-      <c r="A12" s="2">
+    <row r="12" hidden="1" spans="1:23">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -819,961 +1474,1167 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="2">
+    <row r="13" s="1" customFormat="1" hidden="1" spans="1:23">
+      <c r="A13" s="5">
         <v>30</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" s="1" customFormat="1" hidden="1" spans="1:23">
+      <c r="A14" s="5">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" s="1" customFormat="1" hidden="1" spans="1:23">
+      <c r="A15" s="5">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" s="1" customFormat="1" hidden="1" spans="1:23">
+      <c r="A16" s="5">
+        <v>40</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="2">
-        <v>37</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="2">
-        <v>39</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="2">
-        <v>40</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" hidden="1" spans="1:23">
+      <c r="A17" s="3">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" s="2">
-        <v>41</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>42</v>
       </c>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>43</v>
       </c>
+      <c r="B19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>44</v>
       </c>
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>45</v>
       </c>
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>46</v>
       </c>
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>47</v>
       </c>
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>48</v>
       </c>
+      <c r="B24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" s="2">
+      <c r="B25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
-      <c r="A27" s="2">
+    <row r="27" spans="1:1">
+      <c r="A27" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
-      <c r="A28" s="2">
+    <row r="28" spans="1:1">
+      <c r="A28" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
-      <c r="A29" s="2">
+    <row r="29" spans="1:1">
+      <c r="A29" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
-      <c r="A30" s="2">
+    <row r="30" spans="1:1">
+      <c r="A30" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
-      <c r="A31" s="2">
+    <row r="31" spans="1:1">
+      <c r="A31" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
-      <c r="A32" s="2">
+    <row r="32" spans="1:1">
+      <c r="A32" s="3">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="2">
+      <c r="A89" s="3">
         <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="2">
+      <c r="A95" s="3">
         <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="2">
+      <c r="A96" s="3">
         <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="2">
+      <c r="A97" s="3">
         <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="2">
+      <c r="A98" s="3">
         <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="2">
+      <c r="A99" s="3">
         <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="2">
+      <c r="A100" s="3">
         <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="2">
+      <c r="A101" s="3">
         <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="2">
+      <c r="A102" s="3">
         <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="2">
+      <c r="A103" s="3">
         <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="2">
+      <c r="A104" s="3">
         <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="2">
+      <c r="A105" s="3">
         <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="2">
+      <c r="A106" s="3">
         <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="2">
+      <c r="A107" s="3">
         <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="2">
+      <c r="A108" s="3">
         <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="2">
+      <c r="A109" s="3">
         <v>133</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="2">
+      <c r="A110" s="3">
         <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="2">
+      <c r="A111" s="3">
         <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="2">
+      <c r="A112" s="3">
         <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="2">
+      <c r="A113" s="3">
         <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="2">
+      <c r="A114" s="3">
         <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="2">
+      <c r="A115" s="3">
         <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="2">
+      <c r="A116" s="3">
         <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="2">
+      <c r="A117" s="3">
         <v>141</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="2">
+      <c r="A118" s="3">
         <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="2">
+      <c r="A119" s="3">
         <v>143</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="2">
+      <c r="A120" s="3">
         <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="2">
+      <c r="A121" s="3">
         <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="2">
+      <c r="A122" s="3">
         <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="2">
+      <c r="A123" s="3">
         <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="2">
+      <c r="A124" s="3">
         <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="2">
+      <c r="A125" s="3">
         <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="2">
+      <c r="A126" s="3">
         <v>150</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="2">
+      <c r="A127" s="3">
         <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="2">
+      <c r="A128" s="3">
         <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="2">
+      <c r="A129" s="3">
         <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="2">
+      <c r="A130" s="3">
         <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="2">
+      <c r="A131" s="3">
         <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="2">
+      <c r="A132" s="3">
         <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="2">
+      <c r="A133" s="3">
         <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="2">
+      <c r="A134" s="3">
         <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="2">
+      <c r="A135" s="3">
         <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="2">
+      <c r="A136" s="3">
         <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="2">
+      <c r="A137" s="3">
         <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="2">
+      <c r="A138" s="3">
         <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="2">
+      <c r="A139" s="3">
         <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="2">
+      <c r="A140" s="3">
         <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="2">
+      <c r="A141" s="3">
         <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="2">
+      <c r="A142" s="3">
         <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="2">
+      <c r="A143" s="3">
         <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="2">
+      <c r="A144" s="3">
         <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="2">
+      <c r="A145" s="3">
         <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="2">
+      <c r="A146" s="3">
         <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="2">
+      <c r="A147" s="3">
         <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="2">
+      <c r="A148" s="3">
         <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="2">
+      <c r="A149" s="3">
         <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="2">
+      <c r="A150" s="3">
         <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="2">
+      <c r="A151" s="3">
         <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="2">
+      <c r="A152" s="3">
         <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="2">
+      <c r="A153" s="3">
         <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="2">
+      <c r="A154" s="3">
         <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="2">
+      <c r="A155" s="3">
         <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="2">
+      <c r="A156" s="3">
         <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="2">
+      <c r="A157" s="3">
         <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="2">
+      <c r="A158" s="3">
         <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="2">
+      <c r="A159" s="3">
         <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="2">
+      <c r="A160" s="3">
         <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="2">
+      <c r="A161" s="3">
         <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="2">
+      <c r="A162" s="3">
         <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="2">
+      <c r="A163" s="3">
         <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="2">
+      <c r="A164" s="3">
         <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="2">
+      <c r="A165" s="3">
         <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="2">
+      <c r="A166" s="3">
         <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="2">
+      <c r="A167" s="3">
         <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="2">
+      <c r="A168" s="3">
         <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="2">
+      <c r="A169" s="3">
         <v>193</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B16:W16"/>
-    <mergeCell ref="B17:W17"/>
+  <mergeCells count="25">
+    <mergeCell ref="B1:W1"/>
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B3:W3"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="B5:W5"/>
+    <mergeCell ref="B6:W6"/>
+    <mergeCell ref="B7:W7"/>
+    <mergeCell ref="B8:W8"/>
+    <mergeCell ref="B9:W9"/>
+    <mergeCell ref="B10:W10"/>
     <mergeCell ref="B11:W11"/>
     <mergeCell ref="B12:W12"/>
     <mergeCell ref="B13:W13"/>
     <mergeCell ref="B14:W14"/>
     <mergeCell ref="B15:W15"/>
-    <mergeCell ref="B6:W6"/>
-    <mergeCell ref="B7:W7"/>
-    <mergeCell ref="B8:W8"/>
-    <mergeCell ref="B9:W9"/>
-    <mergeCell ref="B10:W10"/>
-    <mergeCell ref="B1:W1"/>
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="B3:W3"/>
-    <mergeCell ref="B4:W4"/>
-    <mergeCell ref="B5:W5"/>
+    <mergeCell ref="B16:W16"/>
+    <mergeCell ref="B17:W17"/>
+    <mergeCell ref="B18:W18"/>
+    <mergeCell ref="B19:W19"/>
+    <mergeCell ref="B20:W20"/>
+    <mergeCell ref="B21:W21"/>
+    <mergeCell ref="B22:W22"/>
+    <mergeCell ref="B23:W23"/>
+    <mergeCell ref="B24:W24"/>
+    <mergeCell ref="B25:W25"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>